--- a/df_list_20241230.xlsx
+++ b/df_list_20241230.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -172,16 +172,68 @@
   </si>
   <si>
     <t>영강(하내지구) 홍수방어능력 증대사업 신기술・특허공법 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>2024년 김포시 미술작품 구입 심의위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년도 1분기 도로관리심의회 사업계획서 제출 알림 공고</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>안성시 투자유치심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>제안서 평가결과 공개(2025 시정 소식지 전주다움 제작)</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>직산1리 연안재해방지시설 설치사업”특정공법(특허・신기술) 선정을 위한 공법선정위원회 결과 공개</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -203,6 +255,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,6 +299,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -745,6 +810,126 @@
       </c>
       <c r="F14" s="4">
         <v>45656.51232638889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>45656.839004629626</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45656.839004629626</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>45656.839004629626</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>45656.839004629626</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>45656.839004629626</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45656.0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>45656.839004629626</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1728,9 +1913,17 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C15"/>
+    <hyperlink r:id="rId2" ref="C16"/>
+    <hyperlink r:id="rId3" ref="C17"/>
+    <hyperlink r:id="rId4" ref="C18"/>
+    <hyperlink r:id="rId5" ref="C19"/>
+    <hyperlink r:id="rId6" ref="C20"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>